--- a/data/method-year.xlsx
+++ b/data/method-year.xlsx
@@ -20,21 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">year</t>
   </si>
   <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
     <t xml:space="preserve">method name</t>
   </si>
   <si>
     <t xml:space="preserve">citation</t>
   </si>
   <si>
+    <t xml:space="preserve">multiple_instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple_outcomes</t>
+  </si>
+  <si>
     <t xml:space="preserve">omnigenic Mendelian randomization</t>
   </si>
   <si>
     <t xml:space="preserve">wang_mendelian_nodate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moPMR-Egger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liu_multi-trait_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMR-Egger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuan_testing_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
 </sst>
 </file>
@@ -49,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,16 +158,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -152,13 +182,59 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/method-year.xlsx
+++ b/data/method-year.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="from-yuan-2020" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -40,6 +41,21 @@
     <t xml:space="preserve">multiple_outcomes</t>
   </si>
   <si>
+    <t xml:space="preserve">design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instrumental_variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_effect_assumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma_effect_assumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation_procedure</t>
+  </si>
+  <si>
     <t xml:space="preserve">omnigenic Mendelian randomization</t>
   </si>
   <si>
@@ -62,6 +78,390 @@
   </si>
   <si>
     <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverse variance weighted regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR-Egger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median-based regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrediXcan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elastic net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumental variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">β-effect assumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">γ-effect assumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation procedure</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PrediXcan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TWAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">BSLMM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SMR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Univariate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed effect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GSMR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MR-Egger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal effect size</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CoMM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">13</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CaMMEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">19</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Variational Bayes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Kang et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">20</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">One-sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasso</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MRMix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">25</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal mixture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimating equation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Berzuini et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">26</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Horseshoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCMC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LDA MR-Egger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">14</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Latent Dirichlet process</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TIGAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">15</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -71,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +492,28 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,8 +558,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -158,18 +600,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -191,16 +638,31 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -208,16 +670,16 @@
         <v>2021</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,16 +687,90 @@
         <v>2020</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -246,4 +782,346 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" location="ref-CR1" display="1"/>
+    <hyperlink ref="A3" r:id="rId2" location="ref-CR2" display="2"/>
+    <hyperlink ref="A4" r:id="rId3" location="ref-CR3" display="3"/>
+    <hyperlink ref="A5" r:id="rId4" location="ref-CR4" display="4"/>
+    <hyperlink ref="A6" r:id="rId5" location="ref-CR8" display="8"/>
+    <hyperlink ref="A7" r:id="rId6" location="ref-CR13" display="13"/>
+    <hyperlink ref="A8" r:id="rId7" location="ref-CR19" display="19"/>
+    <hyperlink ref="A9" r:id="rId8" location="ref-CR20" display="20"/>
+    <hyperlink ref="A10" r:id="rId9" location="ref-CR25" display="25"/>
+    <hyperlink ref="A11" r:id="rId10" location="ref-CR26" display="26"/>
+    <hyperlink ref="A12" r:id="rId11" location="ref-CR28" display="28"/>
+    <hyperlink ref="A13" r:id="rId12" location="ref-CR14" display="14"/>
+    <hyperlink ref="A14" r:id="rId13" location="ref-CR15" display="15"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/method-year.xlsx
+++ b/data/method-year.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -143,199 +143,40 @@
     <t xml:space="preserve">Estimation procedure</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PrediXcan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
+    <t xml:space="preserve">Predixcan</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TWAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">BSLMM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SMR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Univariate</t>
   </si>
   <si>
     <t xml:space="preserve">Fixed effect</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GSMR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Independent</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MR-Egger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Equal effect size</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CoMM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">13</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Normal</t>
   </si>
   <si>
     <t xml:space="preserve">MLE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CaMMEL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">19</t>
-    </r>
+    <t xml:space="preserve">CaMMEL</t>
   </si>
   <si>
     <t xml:space="preserve">Variational Bayes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kang et al.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20</t>
-    </r>
+    <t xml:space="preserve">Kang et al.</t>
   </si>
   <si>
     <t xml:space="preserve">One-sample</t>
@@ -344,25 +185,7 @@
     <t xml:space="preserve">Lasso</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MRMix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">25</t>
-    </r>
+    <t xml:space="preserve">MRMix</t>
   </si>
   <si>
     <t xml:space="preserve">Normal mixture</t>
@@ -371,25 +194,7 @@
     <t xml:space="preserve">Estimating equation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Berzuini et al.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">26</t>
-    </r>
+    <t xml:space="preserve">Berzuini et al</t>
   </si>
   <si>
     <t xml:space="preserve">Horseshoe</t>
@@ -398,70 +203,25 @@
     <t xml:space="preserve">MCMC</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LDA MR-Egger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DPR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">14</t>
-    </r>
+    <t xml:space="preserve">LDA MR-Egger</t>
   </si>
   <si>
     <t xml:space="preserve">Latent Dirichlet process</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TIGAR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">15</t>
-    </r>
+    <t xml:space="preserve">CAUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRAID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BWMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMR-VC</t>
   </si>
 </sst>
 </file>
@@ -471,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -504,13 +264,6 @@
       <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -606,14 +359,14 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.41"/>
@@ -789,13 +542,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -839,16 +595,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>41</v>
@@ -859,16 +615,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>41</v>
@@ -879,16 +635,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>41</v>
@@ -899,19 +655,19 @@
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>27</v>
@@ -919,7 +675,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>23</v>
@@ -928,18 +684,18 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -948,30 +704,30 @@
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>27</v>
@@ -979,47 +735,47 @@
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>23</v>
@@ -1028,10 +784,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>27</v>
@@ -1039,7 +795,7 @@
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
@@ -1048,7 +804,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>41</v>
@@ -1059,7 +815,7 @@
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
@@ -1068,7 +824,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>41</v>
@@ -1088,34 +844,61 @@
         <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" location="ref-CR1" display="1"/>
-    <hyperlink ref="A3" r:id="rId2" location="ref-CR2" display="2"/>
-    <hyperlink ref="A4" r:id="rId3" location="ref-CR3" display="3"/>
-    <hyperlink ref="A5" r:id="rId4" location="ref-CR4" display="4"/>
-    <hyperlink ref="A6" r:id="rId5" location="ref-CR8" display="8"/>
-    <hyperlink ref="A7" r:id="rId6" location="ref-CR13" display="13"/>
-    <hyperlink ref="A8" r:id="rId7" location="ref-CR19" display="19"/>
-    <hyperlink ref="A9" r:id="rId8" location="ref-CR20" display="20"/>
-    <hyperlink ref="A10" r:id="rId9" location="ref-CR25" display="25"/>
-    <hyperlink ref="A11" r:id="rId10" location="ref-CR26" display="26"/>
-    <hyperlink ref="A12" r:id="rId11" location="ref-CR28" display="28"/>
-    <hyperlink ref="A13" r:id="rId12" location="ref-CR14" display="14"/>
-    <hyperlink ref="A14" r:id="rId13" location="ref-CR15" display="15"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/method-year.xlsx
+++ b/data/method-year.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="inputs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="from-yuan-2020" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="notes" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="72">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -222,6 +223,21 @@
   </si>
   <si>
     <t xml:space="preserve">PMR-VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debiased IVW estimator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVW estimator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stackoverflow.com/questions/57013351/cannot-render-citations-in-a-kable-table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kableExtra::kable(dat,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      format = "markdown")</t>
   </si>
 </sst>
 </file>
@@ -231,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -264,6 +280,13 @@
       <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -311,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,6 +356,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -359,14 +386,14 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.41"/>
@@ -542,13 +569,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
   </cols>
@@ -896,6 +923,22 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -907,4 +950,46 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://stackoverflow.com/questions/57013351/cannot-render-citations-in-a-kable-table"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/method-year.xlsx
+++ b/data/method-year.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="100">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -31,21 +31,15 @@
     <t xml:space="preserve">month</t>
   </si>
   <si>
-    <t xml:space="preserve">method name</t>
+    <t xml:space="preserve">month_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method_name</t>
   </si>
   <si>
     <t xml:space="preserve">citation</t>
   </si>
   <si>
-    <t xml:space="preserve">multiple_instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiple_outcomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">design</t>
-  </si>
-  <si>
     <t xml:space="preserve">instrumental_variable</t>
   </si>
   <si>
@@ -67,12 +61,6 @@
     <t xml:space="preserve">@wang_mendelian_nodate</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
     <t xml:space="preserve">February</t>
   </si>
   <si>
@@ -82,6 +70,9 @@
     <t xml:space="preserve">@liu_multi-trait_2021</t>
   </si>
   <si>
+    <t xml:space="preserve">correlated</t>
+  </si>
+  <si>
     <t xml:space="preserve">December</t>
   </si>
   <si>
@@ -100,6 +91,9 @@
     <t xml:space="preserve">@burgess_mendelian_2013</t>
   </si>
   <si>
+    <t xml:space="preserve">independent</t>
+  </si>
+  <si>
     <t xml:space="preserve">April</t>
   </si>
   <si>
@@ -112,184 +106,184 @@
     <t xml:space="preserve">May</t>
   </si>
   <si>
+    <t xml:space="preserve">weighted median regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@bowden_consistent_2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zhu_causal_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRAID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yuan_likelihood_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@morrison_mendelian_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRMix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@qi_mendelian_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR RAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zhao_statistical_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BWMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@zhao_bayesian_2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debiased IVW estimator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ye_debiased_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR-PRESSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@verbanck_detection_2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoMM-S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yang_comm-s2_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumental variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">β-effect assumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">γ-effect assumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predixcan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elastic net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSLMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univariate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal effect size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CaMMEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variational Bayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kang et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal mixture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimating equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berzuini et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horseshoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA MR-Egger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latent Dirichlet process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Median-based regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@bowden_consistent_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@pavlides_predicting_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@zhu_causal_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRAID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@yuan_likelihood_2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@morrison_mendelian_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRMix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@qi_mendelian_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR RAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@zhao_statistical_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BWMR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@zhao_bayesian_2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">debiased IVW estimator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@ye_debiased_2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR-PRESSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@verbanck_detection_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoMM-S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@yang_comm-s2_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instrumental variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">β-effect assumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">γ-effect assumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimation procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predixcan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two-sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correlated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elastic net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two-stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TWAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSLMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univariate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Independent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equal effect size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaMMEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variational Bayes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kang et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One-sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal mixture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimating equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berzuini et al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Horseshoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDA MR-Egger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latent Dirichlet process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIGAR</t>
   </si>
   <si>
     <t xml:space="preserve">RAPS</t>
@@ -338,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -381,11 +375,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,7 +419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,10 +448,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,24 +465,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,31 +512,22 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,19 +535,19 @@
         <v>2021</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,16 +555,16 @@
         <v>2020</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>15</v>
@@ -600,16 +575,19 @@
         <v>2013</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,13 +595,19 @@
         <v>2015</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>27</v>
+      <c r="F6" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,153 +615,175 @@
         <v>2016</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>30</v>
+      <c r="F7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>33</v>
+      <c r="C9" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>39</v>
+      <c r="F11" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="E13" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -799,373 +805,373 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1190,21 +1196,21 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1232,64 +1238,64 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/method-year.xlsx
+++ b/data/method-year.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -663,6 +663,9 @@
       <c r="E9" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -680,6 +683,9 @@
       <c r="E10" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -750,6 +756,9 @@
       </c>
       <c r="E14" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
